--- a/iGMS/Images/Epc.xlsx
+++ b/iGMS/Images/Epc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Lưu Ý:</t>
   </si>
@@ -36,24 +36,6 @@
   </si>
   <si>
     <t xml:space="preserve">CodeGoods   </t>
-  </si>
-  <si>
-    <t>123456-400-XXLT</t>
-  </si>
-  <si>
-    <t>F00000000000000000000005</t>
-  </si>
-  <si>
-    <t>F00000000000000000000004</t>
-  </si>
-  <si>
-    <t>F00000000000000000000003</t>
-  </si>
-  <si>
-    <t>F00000000000000000000002</t>
-  </si>
-  <si>
-    <t>F00000000000000000000001</t>
   </si>
 </sst>
 </file>
@@ -386,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,54 +394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/iGMS/Images/Epc.xlsx
+++ b/iGMS/Images/Epc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Lưu Ý:</t>
   </si>
@@ -36,6 +36,24 @@
   </si>
   <si>
     <t xml:space="preserve">CodeGoods   </t>
+  </si>
+  <si>
+    <t>123456-400-XXLT</t>
+  </si>
+  <si>
+    <t>F00000000000000000000005</t>
+  </si>
+  <si>
+    <t>F00000000000000000000004</t>
+  </si>
+  <si>
+    <t>F00000000000000000000003</t>
+  </si>
+  <si>
+    <t>F00000000000000000000002</t>
+  </si>
+  <si>
+    <t>F00000000000000000000001</t>
   </si>
 </sst>
 </file>
@@ -368,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,7 +412,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
